--- a/biology/Zoologie/Hemicycliophora/Hemicycliophora.xlsx
+++ b/biology/Zoologie/Hemicycliophora/Hemicycliophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemicycliophora est un genre de nématodes de la famille des Hemicycliophoridae.
 </t>
@@ -511,10 +523,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (26 avril 2021)[2] :
-Noms acceptés
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (26 avril 2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hemicycliophora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemicycliophora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms acceptés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hemicycliophora aberrans Thorne, 1955
 Hemicycliophora adolia Khurramov, 1985
 Hemicycliophora amchitkaensis Bernard, 1982
@@ -636,8 +686,43 @@
 Hemicycliophora wallacei Reay, 1985
 Hemicycliophora wesca Van den Berg &amp; Meyer, 1987
 Hemicycliophora zuckermani Brzeski, 1963
-Synonymes
-Hemicycliophora attapadii Rahaman, Ahmad &amp; Jairajpuri, 1996, synonyme de Aulosphora attapadii (Rahaman, Ahmad &amp; Jairajpuri, 1996)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemicycliophora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemicycliophora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hemicycliophora attapadii Rahaman, Ahmad &amp; Jairajpuri, 1996, synonyme de Aulosphora attapadii (Rahaman, Ahmad &amp; Jairajpuri, 1996)
 Hemicycliophora bilineata Singh &amp; Khan, 1999, synonyme de Aulosphora bilineata (Singh &amp; Khan, 1999)
 Hemicycliophora brzeskii Barbez &amp; Geraert, 1980, synonyme de Aulosphora brzeskii (Barbez &amp; Geraert, 1980)
 Hemicycliophora dahomensis Germani &amp; Luc, 1976, synonyme de Aulosphora dahomensis (Germani &amp; Luc, 1976)
